--- a/data/trans_dic/P36B06_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7623995374553524</v>
+        <v>0.7625957858722716</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8026648716791595</v>
+        <v>0.8041085018515379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7837222238486868</v>
+        <v>0.7845379288328399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7973616404415435</v>
+        <v>0.7986626203990707</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8677398609316729</v>
+        <v>0.874574562709614</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8138913815592682</v>
+        <v>0.8101965170012815</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7864388369150848</v>
+        <v>0.7872963957155845</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8465019511052395</v>
+        <v>0.8452776781847298</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8109136748696479</v>
+        <v>0.8121410654699601</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8400431943998877</v>
+        <v>0.8361486505270831</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8779377992680109</v>
+        <v>0.8777153088271564</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8638385783397222</v>
+        <v>0.8639453784241051</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8829990472922379</v>
+        <v>0.8809667851784113</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9415761810188593</v>
+        <v>0.9406618642165817</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8909303318226953</v>
+        <v>0.8887238952450687</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8446343307661351</v>
+        <v>0.8456682845780673</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8973527982743313</v>
+        <v>0.897530139733824</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8650313630547712</v>
+        <v>0.8683370197769975</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7436450763568331</v>
+        <v>0.7400613734660206</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.817474864593926</v>
+        <v>0.8170825971511411</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.798419429468245</v>
+        <v>0.8018480076939324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7346589549913397</v>
+        <v>0.7361661985729636</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.829277920590005</v>
+        <v>0.82609577843499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7711422016608821</v>
+        <v>0.7737564730886316</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7537591200078679</v>
+        <v>0.7543492455959694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8359620455238855</v>
+        <v>0.833404578127043</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8006889738446626</v>
+        <v>0.8000906496760197</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8289928125556927</v>
+        <v>0.8269868574757673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.890055984056583</v>
+        <v>0.8942267391655345</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8751883650798712</v>
+        <v>0.8767366348073085</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8193412915491596</v>
+        <v>0.8220765973347645</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9067813955744908</v>
+        <v>0.9058061249781505</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8549689398797878</v>
+        <v>0.8529193597764751</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8132673821656713</v>
+        <v>0.8123533029049357</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8893040076346304</v>
+        <v>0.8888517298398311</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8576386736099911</v>
+        <v>0.8580397433446697</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.731256108410236</v>
+        <v>0.731018973758038</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7888701945892915</v>
+        <v>0.7885398242371437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7484360711678455</v>
+        <v>0.7478335046686696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7483510747031417</v>
+        <v>0.7409074309281037</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8113815551366048</v>
+        <v>0.8078309745398591</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7815036114848768</v>
+        <v>0.7864090551262908</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7471852289472349</v>
+        <v>0.7425643603825105</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8049717762911022</v>
+        <v>0.8067572935088836</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7751277912403378</v>
+        <v>0.7697751551706526</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8027714001111221</v>
+        <v>0.800908809545975</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.850451177876526</v>
+        <v>0.8516616015068511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.823357081346329</v>
+        <v>0.8248694889649018</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8702632396672909</v>
+        <v>0.8713238386035306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8998695458902293</v>
+        <v>0.8977343156141757</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.899962110732671</v>
+        <v>0.8976737854821155</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8106063834657287</v>
+        <v>0.8078424585057299</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8570514084430434</v>
+        <v>0.8559042531627866</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8342657406089828</v>
+        <v>0.8342415822054609</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7505768472719061</v>
+        <v>0.7480425613645344</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.836618736401368</v>
+        <v>0.8386276760147076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7827848481794958</v>
+        <v>0.7812368934502256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7825888290042254</v>
+        <v>0.7799884885970151</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8297192960628006</v>
+        <v>0.8263951377311387</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.757722110042391</v>
+        <v>0.7538710008169309</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7667696375879849</v>
+        <v>0.7697267313856445</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8416879744225552</v>
+        <v>0.8428549603656638</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7787026348470587</v>
+        <v>0.7795395619946603</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7984219175463312</v>
+        <v>0.7955825418244525</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8798362924585786</v>
+        <v>0.8808837522403002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8283791598849525</v>
+        <v>0.8287656540218356</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8403405427408812</v>
+        <v>0.8397361851284962</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8801703142436968</v>
+        <v>0.8807680146117006</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.815359026661288</v>
+        <v>0.8135641092264908</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8051901149031478</v>
+        <v>0.8065897004859404</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.875567956119244</v>
+        <v>0.8780432775471422</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8148901040151739</v>
+        <v>0.8161803843486516</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.654075161965087</v>
+        <v>0.6543105726911401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7773625505146258</v>
+        <v>0.7755693284995832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7667226111441297</v>
+        <v>0.7680946518907522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7683513041502726</v>
+        <v>0.7652059123303064</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8472365918333719</v>
+        <v>0.8512584441762187</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8233475170684397</v>
+        <v>0.8244474167653869</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7341182951633216</v>
+        <v>0.7359770160522426</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.830713721785423</v>
+        <v>0.828379425779096</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8072382786924535</v>
+        <v>0.8089117826976815</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7485956222242806</v>
+        <v>0.7502081668344498</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8472613890712701</v>
+        <v>0.844663907404248</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.831428875536331</v>
+        <v>0.8343071825645217</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8357436930131432</v>
+        <v>0.8337457750352903</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.898799712077567</v>
+        <v>0.8992674630570536</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8770243181119258</v>
+        <v>0.876541071029264</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7922629801440221</v>
+        <v>0.7924690107812714</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8692646628497767</v>
+        <v>0.869539017329389</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8490102273122527</v>
+        <v>0.8508648116855211</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6248433354462324</v>
+        <v>0.6259381304811878</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6689400544168068</v>
+        <v>0.6788269215332678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.647447481835656</v>
+        <v>0.642592246603051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8078899092539222</v>
+        <v>0.8092270557544186</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8703074881882106</v>
+        <v>0.8697775121667497</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8300321416959243</v>
+        <v>0.8290434970144072</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7802221045449073</v>
+        <v>0.7823750306168273</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8388275501869572</v>
+        <v>0.8403193072086003</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7989006291898609</v>
+        <v>0.7997183099455601</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7286684707858371</v>
+        <v>0.7307053953405674</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7780102451279671</v>
+        <v>0.7825922573534982</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7589653373916337</v>
+        <v>0.7512345743294822</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8494596813006474</v>
+        <v>0.8499883047437502</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9080981257335231</v>
+        <v>0.9103546158484785</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8741225699197138</v>
+        <v>0.8740585706403833</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8205214481145994</v>
+        <v>0.8209165037697128</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8784259036102168</v>
+        <v>0.8776080214042049</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8413867115727297</v>
+        <v>0.841295228106105</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7441996965261762</v>
+        <v>0.7471180664988283</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8220343898961067</v>
+        <v>0.8209095314655949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7866631200696745</v>
+        <v>0.7841044071572072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8023955977474728</v>
+        <v>0.8025238029310851</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8657708177236499</v>
+        <v>0.8656021392344134</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8199333768503878</v>
+        <v>0.8207680845665049</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7786592072198855</v>
+        <v>0.7796939300476923</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8469243131840187</v>
+        <v>0.8470919680680685</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8079469558770862</v>
+        <v>0.8072551441882401</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.776872787706865</v>
+        <v>0.7767978843588699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8474194718079673</v>
+        <v>0.8479749087500936</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8137068332652079</v>
+        <v>0.8145442773438675</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8300727105283917</v>
+        <v>0.8290593091218731</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8887123361100867</v>
+        <v>0.8890298534265213</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8449766792760323</v>
+        <v>0.8464353088697946</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7994720532403525</v>
+        <v>0.800441122862012</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8649004139537277</v>
+        <v>0.8645153364097975</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8282512888268321</v>
+        <v>0.8271400442824516</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>361207</v>
+        <v>361300</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>350934</v>
+        <v>351565</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>336289</v>
+        <v>336639</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>244535</v>
+        <v>244934</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>271921</v>
+        <v>274063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>282465</v>
+        <v>281183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>613782</v>
+        <v>614451</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>635365</v>
+        <v>634446</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>629388</v>
+        <v>630341</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>397992</v>
+        <v>396147</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>383844</v>
+        <v>383747</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>370666</v>
+        <v>370712</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>270798</v>
+        <v>270175</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>295059</v>
+        <v>294772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>309202</v>
+        <v>308436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>659201</v>
+        <v>660008</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>673532</v>
+        <v>673665</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>671391</v>
+        <v>673957</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>272213</v>
+        <v>270901</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>341505</v>
+        <v>341341</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>300468</v>
+        <v>301759</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>273194</v>
+        <v>273754</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>278608</v>
+        <v>277539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>284961</v>
+        <v>285927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>556212</v>
+        <v>556647</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>630082</v>
+        <v>628155</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>597202</v>
+        <v>596756</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>303454</v>
+        <v>302720</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>371826</v>
+        <v>373569</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>329359</v>
+        <v>329941</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>304684</v>
+        <v>305702</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>304647</v>
+        <v>304319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>315938</v>
+        <v>315180</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>600124</v>
+        <v>599449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>670287</v>
+        <v>669946</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>639678</v>
+        <v>639978</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>396625</v>
+        <v>396497</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>496527</v>
+        <v>496319</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>388518</v>
+        <v>388206</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>125560</v>
+        <v>124311</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>211064</v>
+        <v>210140</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>129826</v>
+        <v>130641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>530629</v>
+        <v>527348</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>716058</v>
+        <v>717646</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>531141</v>
+        <v>527473</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>435414</v>
+        <v>434404</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>535287</v>
+        <v>536049</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>427410</v>
+        <v>428196</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>146015</v>
+        <v>146192</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>234082</v>
+        <v>233527</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>149504</v>
+        <v>149124</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>575669</v>
+        <v>573706</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>762385</v>
+        <v>761364</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>571664</v>
+        <v>571647</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>928753</v>
+        <v>925617</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>967980</v>
+        <v>970305</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>898269</v>
+        <v>896493</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>558991</v>
+        <v>557134</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>634511</v>
+        <v>631969</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>625017</v>
+        <v>621840</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1496483</v>
+        <v>1502254</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1617510</v>
+        <v>1619752</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1535908</v>
+        <v>1537558</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>987956</v>
+        <v>984443</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1017984</v>
+        <v>1019196</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>950590</v>
+        <v>951033</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>600243</v>
+        <v>599811</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>673093</v>
+        <v>673550</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>672559</v>
+        <v>671079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1571467</v>
+        <v>1574199</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1682618</v>
+        <v>1687375</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1607284</v>
+        <v>1609828</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>229289</v>
+        <v>229372</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>395342</v>
+        <v>394431</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>475909</v>
+        <v>476761</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>436187</v>
+        <v>434401</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>645189</v>
+        <v>648252</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>606943</v>
+        <v>607754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>674102</v>
+        <v>675809</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1055081</v>
+        <v>1052116</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1096125</v>
+        <v>1098398</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>262424</v>
+        <v>262989</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>430891</v>
+        <v>429570</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>516073</v>
+        <v>517859</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>474445</v>
+        <v>473311</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>684456</v>
+        <v>684812</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>646512</v>
+        <v>646155</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>727493</v>
+        <v>727682</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1104044</v>
+        <v>1104393</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1152846</v>
+        <v>1155365</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>185677</v>
+        <v>186003</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>178528</v>
+        <v>181167</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>185272</v>
+        <v>183883</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1008072</v>
+        <v>1009741</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>963497</v>
+        <v>962910</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>897289</v>
+        <v>896220</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1205398</v>
+        <v>1208724</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1152514</v>
+        <v>1154563</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1092247</v>
+        <v>1093364</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>216530</v>
+        <v>217135</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>207637</v>
+        <v>208860</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>217184</v>
+        <v>214972</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1059942</v>
+        <v>1060602</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1005334</v>
+        <v>1007832</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>944952</v>
+        <v>944883</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1267658</v>
+        <v>1268268</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1206920</v>
+        <v>1205797</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1150333</v>
+        <v>1150208</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2431537</v>
+        <v>2441072</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2808767</v>
+        <v>2804923</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2658073</v>
+        <v>2649428</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2708959</v>
+        <v>2709392</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3067242</v>
+        <v>3066645</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2890893</v>
+        <v>2893836</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5172949</v>
+        <v>5179823</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5894285</v>
+        <v>5895452</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5578622</v>
+        <v>5573845</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2538290</v>
+        <v>2538046</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2895504</v>
+        <v>2897401</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2749452</v>
+        <v>2752282</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2802399</v>
+        <v>2798978</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3148519</v>
+        <v>3149644</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2979190</v>
+        <v>2984333</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5311217</v>
+        <v>5317655</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6019392</v>
+        <v>6016712</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5718817</v>
+        <v>5711144</v>
       </c>
     </row>
     <row r="32">
